--- a/src/main/resources/formatos/Formato_6.xlsx
+++ b/src/main/resources/formatos/Formato_6.xlsx
@@ -2,37 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLARIDAD3\PRUEBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8595" tabRatio="701" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8595" tabRatio="701"/>
   </bookViews>
   <sheets>
-    <sheet name="Mozart Reports" sheetId="10" state="veryHidden" r:id="rId1"/>
-    <sheet name="Formato-6" sheetId="15" r:id="rId2"/>
-    <sheet name="Anexo-6A" sheetId="14" r:id="rId3"/>
-    <sheet name="Anexo-6B" sheetId="13" r:id="rId4"/>
-    <sheet name="Anexo-6C" sheetId="16" r:id="rId5"/>
+    <sheet name="Formato-6" sheetId="15" r:id="rId1"/>
+    <sheet name="Anexo-6A" sheetId="14" r:id="rId2"/>
+    <sheet name="Anexo-6B" sheetId="13" r:id="rId3"/>
+    <sheet name="Anexo-6C" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Anexo-6A'!$B$1:$M$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Anexo-6B'!$B$1:$N$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Anexo-6C'!$B$1:$L$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Formato-6'!$B$2:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Anexo-6A'!$B$1:$M$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Anexo-6B'!$B$1:$N$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Anexo-6C'!$B$1:$L$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-6'!$B$2:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
-  <si>
-    <t>455020e7fb46400a92f5be09bff5ef6e</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>II. DETALLE DEL GASTO</t>
   </si>
@@ -678,10 +674,6 @@
   </si>
   <si>
     <t>N° de matricula</t>
-  </si>
-  <si>
-    <t>Monto
-S/</t>
   </si>
   <si>
     <t>TOTAL S/</t>
@@ -834,11 +826,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="_ &quot;*&quot;\ #,##0.00_ ;_ &quot;*&quot;\ \-#,##0.00_ ;_ &quot;*&quot;\ &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="_ [$S/.-280A]\ * #,##0.00_ ;_ [$S/.-280A]\ * \-#,##0.00_ ;_ [$S/.-280A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;*&quot;\ #,##0.00_ ;_ &quot;*&quot;\ \-#,##0.00_ ;_ &quot;*&quot;\ &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$S/.-280A]\ * #,##0.00_ ;_ [$S/.-280A]\ * \-#,##0.00_ ;_ [$S/.-280A]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1004,6 +996,12 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
@@ -1060,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1438,28 +1436,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1485,10 +1461,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1498,7 +1474,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1514,19 +1490,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1547,6 +1510,19 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1568,9 +1544,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2073,7 +2049,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2097,7 +2073,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2187,18 +2163,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2214,7 +2184,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2226,25 +2196,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,8 +2238,50 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2277,7 +2289,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2289,7 +2301,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2298,7 +2310,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2313,203 +2325,209 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="196" fontId="10" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="10" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2520,65 +2538,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2586,61 +2598,7 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2997,36 +2955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K376"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3047,15 +2982,15 @@
     <row r="1" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
-      <c r="C2" s="249" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="C2" s="238" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="13"/>
       <c r="H2" s="206" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="102"/>
@@ -3075,14 +3010,14 @@
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="250" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="250"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
+      <c r="C4" s="239" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="239"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="103"/>
       <c r="J4" s="104"/>
       <c r="K4" s="3"/>
@@ -3101,14 +3036,14 @@
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="252" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
+      <c r="C6" s="241" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
       <c r="I6" s="106"/>
       <c r="J6" s="104"/>
       <c r="K6" s="3"/>
@@ -3128,16 +3063,16 @@
     <row r="8" spans="2:11" s="70" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="191" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="237"/>
+      <c r="D8" s="247" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249"/>
       <c r="H8" s="192" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="17"/>
@@ -3146,15 +3081,17 @@
     <row r="9" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="193" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="238" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="120"/>
+        <v>90</v>
+      </c>
+      <c r="D9" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="120">
+        <v>20</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
@@ -3162,14 +3099,14 @@
     <row r="10" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="194" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="241" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="243"/>
+        <v>91</v>
+      </c>
+      <c r="D10" s="253" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="255"/>
       <c r="H10" s="121"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
@@ -3178,14 +3115,14 @@
     <row r="11" spans="2:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="195" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="244" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="246"/>
+        <v>92</v>
+      </c>
+      <c r="D11" s="256" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="257"/>
+      <c r="F11" s="257"/>
+      <c r="G11" s="258"/>
       <c r="H11" s="122"/>
       <c r="I11" s="3"/>
       <c r="J11" s="1"/>
@@ -3193,16 +3130,16 @@
     </row>
     <row r="12" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="254"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="256"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="245"/>
       <c r="G12" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="222">
+        <v>7</v>
+      </c>
+      <c r="H12" s="220">
         <f>SUM(H9:H11)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
@@ -3222,14 +3159,14 @@
     </row>
     <row r="14" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
-      <c r="C14" s="253" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="253"/>
+      <c r="C14" s="242" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
       <c r="I14" s="111"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
@@ -3272,16 +3209,16 @@
     </row>
     <row r="18" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
-      <c r="C18" s="234" t="s">
+      <c r="C18" s="246" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="246"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="234"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="234"/>
+      <c r="H18" s="246"/>
       <c r="I18" s="30"/>
       <c r="J18" s="28"/>
       <c r="K18" s="30"/>
@@ -3289,13 +3226,13 @@
     <row r="19" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="177" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="247"/>
-      <c r="E19" s="247"/>
+        <v>41</v>
+      </c>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
       <c r="F19" s="176"/>
       <c r="G19" s="177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="178"/>
       <c r="I19" s="30"/>
@@ -3305,13 +3242,13 @@
     <row r="20" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="248"/>
-      <c r="E20" s="248"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="237"/>
+      <c r="E20" s="237"/>
       <c r="F20" s="10"/>
       <c r="G20" s="112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="180"/>
       <c r="I20" s="3"/>
@@ -3319,10 +3256,10 @@
     <row r="21" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="179" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
+        <v>96</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
       <c r="F21" s="10"/>
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
@@ -3331,10 +3268,10 @@
     <row r="22" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="248"/>
+        <v>97</v>
+      </c>
+      <c r="D22" s="237"/>
+      <c r="E22" s="237"/>
       <c r="F22" s="10"/>
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
@@ -3353,13 +3290,13 @@
     <row r="24" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="197" t="s">
         <v>20</v>
-      </c>
-      <c r="D24" s="198" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="197" t="s">
-        <v>21</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="15"/>
@@ -3369,7 +3306,7 @@
     <row r="25" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="123"/>
       <c r="E25" s="14"/>
@@ -3381,7 +3318,7 @@
     <row r="26" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="170" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="124"/>
       <c r="E26" s="14"/>
@@ -3393,7 +3330,7 @@
     <row r="27" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
       <c r="C27" s="170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="124"/>
       <c r="E27" s="14"/>
@@ -3405,7 +3342,7 @@
     <row r="28" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="123"/>
       <c r="E28" s="14"/>
@@ -3417,7 +3354,7 @@
     <row r="29" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="C29" s="169" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="123"/>
       <c r="E29" s="14"/>
@@ -3470,7 +3407,7 @@
       <c r="H33" s="29"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K33" s="69"/>
     </row>
@@ -7592,7 +7529,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C4:H4"/>
@@ -7606,6 +7542,7 @@
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7614,15 +7551,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M40"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:J30"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7646,19 +7583,19 @@
   <sheetData>
     <row r="1" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21"/>
-      <c r="C1" s="262" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="223" t="s">
-        <v>65</v>
+      <c r="C1" s="282" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
+      <c r="L1" s="221" t="s">
+        <v>64</v>
       </c>
       <c r="M1" s="24"/>
     </row>
@@ -7678,48 +7615,48 @@
     </row>
     <row r="3" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
-      <c r="C3" s="263" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="265"/>
+      <c r="C3" s="283" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="285"/>
     </row>
     <row r="4" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
-      <c r="C5" s="252" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="252"/>
+      <c r="C5" s="241" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7738,98 +7675,98 @@
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="266" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="257" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="287" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="288"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="288"/>
-      <c r="L7" s="289"/>
+      <c r="C7" s="286" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="295" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="296"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="272"/>
+      <c r="I7" s="272"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="273"/>
       <c r="M7" s="30"/>
     </row>
     <row r="8" spans="2:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="267"/>
-      <c r="D8" s="274" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="269" t="s">
+      <c r="C8" s="287"/>
+      <c r="D8" s="290" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="279" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="288" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="271" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="236" t="s">
+      <c r="H8" s="248"/>
+      <c r="I8" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="236"/>
-      <c r="I8" s="235" t="s">
+      <c r="J8" s="248"/>
+      <c r="K8" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="236"/>
-      <c r="K8" s="296" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="297"/>
+      <c r="L8" s="277"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="275"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="294" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="282" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="284" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="260" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="298"/>
-      <c r="L9" s="269"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="231" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="232" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="234" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="278"/>
+      <c r="L9" s="279"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="2:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="285"/>
-      <c r="J10" s="261"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="270"/>
-      <c r="M10" s="30"/>
+    <row r="10" spans="2:13" s="75" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="275"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:13" s="75" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="290"/>
-      <c r="L11" s="291"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="262"/>
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13" s="75" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7842,8 +7779,8 @@
       <c r="H12" s="41"/>
       <c r="I12" s="40"/>
       <c r="J12" s="43"/>
-      <c r="K12" s="292"/>
-      <c r="L12" s="293"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="262"/>
       <c r="M12" s="37"/>
     </row>
     <row r="13" spans="2:13" s="75" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7856,101 +7793,101 @@
       <c r="H13" s="41"/>
       <c r="I13" s="40"/>
       <c r="J13" s="43"/>
-      <c r="K13" s="292"/>
-      <c r="L13" s="293"/>
+      <c r="K13" s="261"/>
+      <c r="L13" s="262"/>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="2:13" s="75" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" s="75" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="292"/>
-      <c r="L14" s="293"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="264"/>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="2:13" s="75" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="302"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="2:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="306"/>
-      <c r="D16" s="307"/>
-      <c r="E16" s="307"/>
-      <c r="F16" s="307"/>
-      <c r="G16" s="307"/>
-      <c r="H16" s="307"/>
-      <c r="I16" s="199" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="221">
-        <f>SUM(J11:J15)</f>
+    <row r="15" spans="2:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="199" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="219">
+        <f>SUM(J10:J14)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="304"/>
-      <c r="L16" s="305"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="2:13" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="31"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="37"/>
+      <c r="K15" s="265"/>
+      <c r="L15" s="266"/>
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="2:13" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="31"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="280" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="280"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="280"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="280"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="280"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
-      <c r="C18" s="277" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="277"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="277"/>
-      <c r="L18" s="277"/>
+      <c r="C18" s="280" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="280"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="280"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
-      <c r="C19" s="277" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="277"/>
-      <c r="E19" s="277"/>
-      <c r="F19" s="277"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="277"/>
-      <c r="K19" s="277"/>
-      <c r="L19" s="277"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7969,16 +7906,16 @@
     </row>
     <row r="21" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
-      <c r="C21" s="57"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="28"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="30"/>
     </row>
     <row r="22" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7995,339 +7932,321 @@
       <c r="L22" s="27"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="30"/>
+    <row r="23" spans="2:13" s="80" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="77"/>
+      <c r="C23" s="269" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="269"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="269" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="269"/>
+      <c r="L23" s="269"/>
+      <c r="M23" s="79"/>
     </row>
     <row r="24" spans="2:13" s="80" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="77"/>
-      <c r="C24" s="278" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="278"/>
-      <c r="E24" s="278"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="278" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="278"/>
-      <c r="L24" s="278"/>
+      <c r="C24" s="292" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="292"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="293" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="293"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="294"/>
       <c r="M24" s="79"/>
     </row>
     <row r="25" spans="2:13" s="80" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="77"/>
-      <c r="C25" s="279" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="279"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="280" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="280"/>
-      <c r="K25" s="281"/>
-      <c r="L25" s="281"/>
+      <c r="C25" s="226" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="227"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="281" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="281"/>
+      <c r="K25" s="270"/>
+      <c r="L25" s="270"/>
       <c r="M25" s="79"/>
     </row>
     <row r="26" spans="2:13" s="80" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="77"/>
       <c r="C26" s="228" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="229"/>
+        <v>96</v>
+      </c>
+      <c r="D26" s="227"/>
       <c r="E26" s="184"/>
       <c r="F26" s="185"/>
       <c r="G26" s="10"/>
       <c r="H26" s="185"/>
-      <c r="I26" s="301" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="301"/>
-      <c r="K26" s="286"/>
-      <c r="L26" s="286"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
       <c r="M26" s="79"/>
     </row>
     <row r="27" spans="2:13" s="80" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="77"/>
-      <c r="C27" s="230" t="s">
+      <c r="C27" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="229"/>
+      <c r="D27" s="227"/>
       <c r="E27" s="184"/>
       <c r="F27" s="185"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="179"/>
       <c r="H27" s="185"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="212"/>
-      <c r="K27" s="217"/>
-      <c r="L27" s="217"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="185"/>
       <c r="M27" s="79"/>
     </row>
-    <row r="28" spans="2:13" s="80" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="77"/>
-      <c r="C28" s="230" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="229"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="79"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="30"/>
+    </row>
+    <row r="29" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="C29" s="260" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="260"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="260"/>
+      <c r="J29" s="260"/>
+      <c r="K29" s="76"/>
       <c r="L29" s="27"/>
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
-      <c r="C30" s="300" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="300"/>
-      <c r="E30" s="300"/>
-      <c r="F30" s="300"/>
-      <c r="G30" s="300"/>
-      <c r="H30" s="300"/>
-      <c r="I30" s="300"/>
-      <c r="J30" s="300"/>
+      <c r="C30" s="260" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="260"/>
+      <c r="E30" s="260"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="260"/>
+      <c r="J30" s="260"/>
       <c r="K30" s="76"/>
       <c r="L30" s="27"/>
       <c r="M30" s="30"/>
     </row>
     <row r="31" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
-      <c r="C31" s="300" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="300"/>
-      <c r="E31" s="300"/>
-      <c r="F31" s="300"/>
-      <c r="G31" s="300"/>
-      <c r="H31" s="300"/>
-      <c r="I31" s="300"/>
-      <c r="J31" s="300"/>
+      <c r="C31" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="260"/>
+      <c r="E31" s="260"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="260"/>
+      <c r="I31" s="260"/>
+      <c r="J31" s="260"/>
       <c r="K31" s="76"/>
       <c r="L31" s="27"/>
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
-      <c r="C32" s="300" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="300"/>
-      <c r="E32" s="300"/>
-      <c r="F32" s="300"/>
-      <c r="G32" s="300"/>
-      <c r="H32" s="300"/>
-      <c r="I32" s="300"/>
-      <c r="J32" s="300"/>
+      <c r="C32" s="260" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="260"/>
+      <c r="E32" s="260"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="260"/>
+      <c r="H32" s="260"/>
+      <c r="I32" s="260"/>
+      <c r="J32" s="260"/>
       <c r="K32" s="76"/>
       <c r="L32" s="27"/>
       <c r="M32" s="30"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
-      <c r="C33" s="300" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="300"/>
-      <c r="E33" s="300"/>
-      <c r="F33" s="300"/>
-      <c r="G33" s="300"/>
-      <c r="H33" s="300"/>
-      <c r="I33" s="300"/>
-      <c r="J33" s="300"/>
+      <c r="C33" s="260" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="260"/>
+      <c r="E33" s="260"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
+      <c r="J33" s="260"/>
       <c r="K33" s="76"/>
       <c r="L33" s="27"/>
       <c r="M33" s="30"/>
     </row>
     <row r="34" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
-      <c r="C34" s="300" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="300"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="300"/>
-      <c r="G34" s="300"/>
-      <c r="H34" s="300"/>
-      <c r="I34" s="300"/>
-      <c r="J34" s="300"/>
+      <c r="C34" s="260" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="260"/>
+      <c r="E34" s="260"/>
+      <c r="F34" s="260"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="260"/>
+      <c r="I34" s="260"/>
+      <c r="J34" s="260"/>
       <c r="K34" s="76"/>
       <c r="L34" s="27"/>
       <c r="M34" s="30"/>
     </row>
     <row r="35" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
-      <c r="C35" s="300" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="300"/>
-      <c r="E35" s="300"/>
-      <c r="F35" s="300"/>
-      <c r="G35" s="300"/>
-      <c r="H35" s="300"/>
-      <c r="I35" s="300"/>
-      <c r="J35" s="300"/>
+      <c r="C35" s="260" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="260"/>
+      <c r="E35" s="260"/>
+      <c r="F35" s="260"/>
+      <c r="G35" s="260"/>
+      <c r="H35" s="260"/>
+      <c r="I35" s="260"/>
+      <c r="J35" s="260"/>
       <c r="K35" s="76"/>
       <c r="L35" s="27"/>
       <c r="M35" s="30"/>
     </row>
     <row r="36" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
-      <c r="C36" s="300" t="s">
+      <c r="C36" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="300"/>
-      <c r="E36" s="300"/>
-      <c r="F36" s="300"/>
-      <c r="G36" s="300"/>
-      <c r="H36" s="300"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="300"/>
+      <c r="D36" s="260"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
       <c r="K36" s="76"/>
       <c r="L36" s="27"/>
       <c r="M36" s="30"/>
     </row>
     <row r="37" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
-      <c r="C37" s="300" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="300"/>
-      <c r="E37" s="300"/>
-      <c r="F37" s="300"/>
-      <c r="G37" s="300"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="300"/>
-      <c r="J37" s="300"/>
+      <c r="C37" s="260" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="260"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="260"/>
       <c r="K37" s="76"/>
       <c r="L37" s="27"/>
       <c r="M37" s="30"/>
     </row>
     <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
-      <c r="C38" s="300" t="s">
+      <c r="C38" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="300"/>
-      <c r="E38" s="300"/>
-      <c r="F38" s="300"/>
-      <c r="G38" s="300"/>
-      <c r="H38" s="300"/>
-      <c r="I38" s="300"/>
-      <c r="J38" s="300"/>
-      <c r="K38" s="76"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="260"/>
+      <c r="I38" s="260"/>
+      <c r="J38" s="260"/>
+      <c r="K38" s="57"/>
       <c r="L38" s="27"/>
       <c r="M38" s="30"/>
     </row>
-    <row r="39" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-      <c r="C39" s="300" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="300"/>
-      <c r="E39" s="300"/>
-      <c r="F39" s="300"/>
-      <c r="G39" s="300"/>
-      <c r="H39" s="300"/>
-      <c r="I39" s="300"/>
-      <c r="J39" s="300"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="30"/>
-    </row>
-    <row r="40" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="68"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="69"/>
+    <row r="39" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="68"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C39:J39"/>
+  <mergeCells count="39">
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C32:J32"/>
     <mergeCell ref="C33:J33"/>
     <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C37:J37"/>
     <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
     <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K8:L10"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8337,12 +8256,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="B1:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:F24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8368,73 +8288,73 @@
   <sheetData>
     <row r="1" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="81"/>
-      <c r="C1" s="262" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
+      <c r="C1" s="282" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
       <c r="L1" s="74"/>
-      <c r="M1" s="223" t="s">
-        <v>66</v>
+      <c r="M1" s="221" t="s">
+        <v>65</v>
       </c>
       <c r="N1" s="24"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6"/>
-      <c r="C2" s="250" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
-      <c r="K2" s="311"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
+      <c r="C2" s="239" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="314"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="330"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="82"/>
-      <c r="C4" s="252" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="252"/>
+      <c r="C4" s="241" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
       <c r="N4" s="3"/>
       <c r="O4" s="1"/>
     </row>
@@ -8456,84 +8376,84 @@
     </row>
     <row r="6" spans="2:16" s="80" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="77"/>
-      <c r="C6" s="266" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="308" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="257" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="288"/>
-      <c r="G6" s="288"/>
-      <c r="H6" s="257" t="s">
+      <c r="C6" s="286" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="315" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="288"/>
-      <c r="J6" s="288"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="288"/>
-      <c r="M6" s="289"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="272"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
+      <c r="M6" s="273"/>
       <c r="N6" s="79"/>
       <c r="O6" s="78"/>
       <c r="P6" s="78"/>
     </row>
     <row r="7" spans="2:16" s="70" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="309"/>
-      <c r="E7" s="321" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="312" t="s">
+      <c r="C7" s="287"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="322" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="320" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="321"/>
+      <c r="H7" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="313"/>
-      <c r="H7" s="235" t="s">
+      <c r="I7" s="249"/>
+      <c r="J7" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="237"/>
-      <c r="J7" s="235" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="237"/>
-      <c r="L7" s="296" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="297"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="276" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="277"/>
       <c r="N7" s="30"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:16" s="70" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="310"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="214" t="s">
-        <v>83</v>
+      <c r="C8" s="319"/>
+      <c r="D8" s="317"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="212" t="s">
+        <v>82</v>
       </c>
       <c r="G8" s="200" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="215" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="H8" s="213" t="s">
+        <v>103</v>
       </c>
       <c r="I8" s="200" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="216" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="J8" s="214" t="s">
+        <v>24</v>
       </c>
       <c r="K8" s="201" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="299"/>
-      <c r="M8" s="270"/>
+        <v>94</v>
+      </c>
+      <c r="L8" s="324"/>
+      <c r="M8" s="325"/>
       <c r="N8" s="30"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="280"/>
+      <c r="P8" s="293"/>
     </row>
     <row r="9" spans="2:16" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
@@ -8546,11 +8466,11 @@
       <c r="I9" s="35"/>
       <c r="J9" s="84"/>
       <c r="K9" s="85"/>
-      <c r="L9" s="290"/>
-      <c r="M9" s="291"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="275"/>
       <c r="N9" s="37"/>
       <c r="O9" s="86"/>
-      <c r="P9" s="280"/>
+      <c r="P9" s="293"/>
     </row>
     <row r="10" spans="2:16" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
@@ -8563,8 +8483,8 @@
       <c r="I10" s="88"/>
       <c r="J10" s="49"/>
       <c r="K10" s="89"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="209"/>
+      <c r="L10" s="326"/>
+      <c r="M10" s="327"/>
       <c r="N10" s="37"/>
       <c r="O10" s="86"/>
       <c r="P10" s="12"/>
@@ -8580,8 +8500,8 @@
       <c r="I11" s="88"/>
       <c r="J11" s="49"/>
       <c r="K11" s="89"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="209"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="327"/>
       <c r="N11" s="37"/>
       <c r="O11" s="86"/>
       <c r="P11" s="12"/>
@@ -8597,8 +8517,8 @@
       <c r="I12" s="88"/>
       <c r="J12" s="49"/>
       <c r="K12" s="89"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="318"/>
+      <c r="L12" s="326"/>
+      <c r="M12" s="327"/>
       <c r="N12" s="37"/>
       <c r="O12" s="86"/>
       <c r="P12" s="12"/>
@@ -8614,8 +8534,8 @@
       <c r="I13" s="42"/>
       <c r="J13" s="50"/>
       <c r="K13" s="91"/>
-      <c r="L13" s="317"/>
-      <c r="M13" s="318"/>
+      <c r="L13" s="326"/>
+      <c r="M13" s="327"/>
       <c r="N13" s="37"/>
       <c r="O13" s="86"/>
       <c r="P13" s="92"/>
@@ -8631,30 +8551,30 @@
       <c r="I14" s="173"/>
       <c r="J14" s="172"/>
       <c r="K14" s="174"/>
-      <c r="L14" s="319"/>
-      <c r="M14" s="320"/>
+      <c r="L14" s="306"/>
+      <c r="M14" s="307"/>
       <c r="N14" s="37"/>
       <c r="O14" s="86"/>
       <c r="P14" s="92"/>
     </row>
     <row r="15" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="331"/>
-      <c r="D15" s="332"/>
-      <c r="E15" s="332"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="332"/>
-      <c r="H15" s="332"/>
-      <c r="I15" s="333"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="301"/>
       <c r="J15" s="207" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="220">
+        <v>15</v>
+      </c>
+      <c r="K15" s="218">
         <f>SUM(K9:K14)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="304"/>
-      <c r="M15" s="305"/>
+      <c r="L15" s="265"/>
+      <c r="M15" s="266"/>
       <c r="N15" s="30"/>
       <c r="O15" s="28"/>
     </row>
@@ -8677,37 +8597,37 @@
     </row>
     <row r="17" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
-      <c r="C17" s="277" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="277"/>
-      <c r="E17" s="277"/>
-      <c r="F17" s="277"/>
-      <c r="G17" s="277"/>
-      <c r="H17" s="277"/>
-      <c r="I17" s="277"/>
-      <c r="J17" s="277"/>
-      <c r="K17" s="277"/>
-      <c r="L17" s="277"/>
-      <c r="M17" s="277"/>
+      <c r="C17" s="280" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="280"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="280"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="280"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="280"/>
+      <c r="M17" s="280"/>
       <c r="N17" s="30"/>
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
-      <c r="C18" s="277" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="277"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="277"/>
-      <c r="L18" s="277"/>
-      <c r="M18" s="277"/>
+      <c r="C18" s="280" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="280"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="280"/>
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -8787,93 +8707,93 @@
     </row>
     <row r="24" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
-      <c r="C24" s="210"/>
+      <c r="C24" s="208"/>
       <c r="D24" s="189"/>
-      <c r="E24" s="278" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="278"/>
+      <c r="E24" s="269" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="269"/>
       <c r="G24" s="186"/>
       <c r="H24" s="186"/>
       <c r="I24" s="187"/>
       <c r="J24" s="182"/>
-      <c r="K24" s="278" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="278"/>
-      <c r="M24" s="278"/>
+      <c r="K24" s="269" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="269"/>
+      <c r="M24" s="269"/>
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
-      <c r="C25" s="279" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="279"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="281"/>
+      <c r="C25" s="292" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="292"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
       <c r="G25" s="186"/>
       <c r="H25" s="186"/>
       <c r="I25" s="187"/>
-      <c r="J25" s="280" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="280"/>
-      <c r="L25" s="281"/>
-      <c r="M25" s="281"/>
+      <c r="J25" s="293" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="294"/>
       <c r="N25" s="30"/>
     </row>
     <row r="26" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
-      <c r="C26" s="324" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="324"/>
-      <c r="E26" s="328"/>
-      <c r="F26" s="328"/>
+      <c r="C26" s="309" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="309"/>
+      <c r="E26" s="312"/>
+      <c r="F26" s="312"/>
       <c r="G26" s="179"/>
       <c r="H26" s="179"/>
       <c r="I26" s="188"/>
-      <c r="J26" s="301" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="301"/>
-      <c r="L26" s="286"/>
-      <c r="M26" s="286"/>
+      <c r="J26" s="281" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="281"/>
+      <c r="L26" s="270"/>
+      <c r="M26" s="270"/>
       <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
-      <c r="C27" s="228" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="228"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
+      <c r="C27" s="226" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="226"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
       <c r="G27" s="179"/>
       <c r="H27" s="179"/>
       <c r="I27" s="188"/>
       <c r="J27" s="57"/>
-      <c r="K27" s="327"/>
-      <c r="L27" s="327"/>
-      <c r="M27" s="327"/>
+      <c r="K27" s="311"/>
+      <c r="L27" s="311"/>
+      <c r="M27" s="311"/>
       <c r="N27" s="30"/>
     </row>
     <row r="28" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
-      <c r="C28" s="324" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="324"/>
-      <c r="E28" s="328"/>
-      <c r="F28" s="328"/>
+      <c r="C28" s="309" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="309"/>
+      <c r="E28" s="312"/>
+      <c r="F28" s="312"/>
       <c r="G28" s="179"/>
       <c r="H28" s="179"/>
       <c r="I28" s="188"/>
       <c r="J28" s="57"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="325"/>
+      <c r="K28" s="310"/>
+      <c r="L28" s="310"/>
+      <c r="M28" s="310"/>
       <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8893,118 +8813,118 @@
     </row>
     <row r="30" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="94"/>
-      <c r="C30" s="300" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="300"/>
-      <c r="E30" s="300"/>
-      <c r="F30" s="300"/>
-      <c r="G30" s="300"/>
-      <c r="H30" s="300"/>
-      <c r="I30" s="300"/>
-      <c r="J30" s="300"/>
+      <c r="C30" s="260" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="260"/>
+      <c r="E30" s="260"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="260"/>
+      <c r="J30" s="260"/>
       <c r="K30" s="96"/>
-      <c r="L30" s="329"/>
-      <c r="M30" s="329"/>
+      <c r="L30" s="304"/>
+      <c r="M30" s="304"/>
       <c r="N30" s="30"/>
     </row>
     <row r="31" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="94"/>
-      <c r="C31" s="335" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="336"/>
-      <c r="F31" s="336"/>
-      <c r="G31" s="336"/>
-      <c r="H31" s="336"/>
-      <c r="I31" s="336"/>
-      <c r="J31" s="336"/>
+      <c r="C31" s="313" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="314"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="314"/>
+      <c r="G31" s="314"/>
+      <c r="H31" s="314"/>
+      <c r="I31" s="314"/>
+      <c r="J31" s="314"/>
       <c r="K31" s="97"/>
-      <c r="L31" s="326"/>
-      <c r="M31" s="326"/>
+      <c r="L31" s="305"/>
+      <c r="M31" s="305"/>
       <c r="N31" s="30"/>
     </row>
     <row r="32" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
-      <c r="C32" s="335" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="336"/>
-      <c r="E32" s="336"/>
-      <c r="F32" s="336"/>
-      <c r="G32" s="336"/>
-      <c r="H32" s="336"/>
-      <c r="I32" s="336"/>
-      <c r="J32" s="336"/>
+      <c r="C32" s="313" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="314"/>
+      <c r="E32" s="314"/>
+      <c r="F32" s="314"/>
+      <c r="G32" s="314"/>
+      <c r="H32" s="314"/>
+      <c r="I32" s="314"/>
+      <c r="J32" s="314"/>
       <c r="K32" s="97"/>
-      <c r="L32" s="326"/>
-      <c r="M32" s="326"/>
+      <c r="L32" s="305"/>
+      <c r="M32" s="305"/>
       <c r="N32" s="30"/>
     </row>
     <row r="33" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
-      <c r="C33" s="300" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="300"/>
-      <c r="E33" s="300"/>
-      <c r="F33" s="300"/>
-      <c r="G33" s="300"/>
-      <c r="H33" s="300"/>
-      <c r="I33" s="300"/>
-      <c r="J33" s="300"/>
+      <c r="C33" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="260"/>
+      <c r="E33" s="260"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
+      <c r="J33" s="260"/>
       <c r="K33" s="98"/>
-      <c r="L33" s="326"/>
-      <c r="M33" s="326"/>
+      <c r="L33" s="305"/>
+      <c r="M33" s="305"/>
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="94"/>
-      <c r="C34" s="300" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="300"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="300"/>
-      <c r="G34" s="300"/>
-      <c r="H34" s="300"/>
-      <c r="I34" s="300"/>
-      <c r="J34" s="300"/>
+      <c r="C34" s="260" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="260"/>
+      <c r="E34" s="260"/>
+      <c r="F34" s="260"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="260"/>
+      <c r="I34" s="260"/>
+      <c r="J34" s="260"/>
       <c r="K34" s="98"/>
-      <c r="L34" s="334"/>
-      <c r="M34" s="334"/>
+      <c r="L34" s="302"/>
+      <c r="M34" s="302"/>
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="94"/>
-      <c r="C35" s="300" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="300"/>
-      <c r="E35" s="300"/>
-      <c r="F35" s="300"/>
-      <c r="G35" s="300"/>
-      <c r="H35" s="300"/>
-      <c r="I35" s="300"/>
-      <c r="J35" s="300"/>
+      <c r="C35" s="260" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="260"/>
+      <c r="E35" s="260"/>
+      <c r="F35" s="260"/>
+      <c r="G35" s="260"/>
+      <c r="H35" s="260"/>
+      <c r="I35" s="260"/>
+      <c r="J35" s="260"/>
       <c r="K35" s="98"/>
-      <c r="L35" s="334"/>
-      <c r="M35" s="334"/>
+      <c r="L35" s="302"/>
+      <c r="M35" s="302"/>
       <c r="N35" s="30"/>
     </row>
     <row r="36" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="94"/>
-      <c r="C36" s="300" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="300"/>
-      <c r="E36" s="300"/>
-      <c r="F36" s="300"/>
-      <c r="G36" s="300"/>
-      <c r="H36" s="300"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="300"/>
+      <c r="C36" s="260" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="260"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
       <c r="K36" s="98"/>
       <c r="L36" s="98"/>
       <c r="M36" s="61"/>
@@ -9012,117 +8932,117 @@
     </row>
     <row r="37" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="94"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="277" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="277"/>
-      <c r="F37" s="277"/>
-      <c r="G37" s="277"/>
-      <c r="H37" s="277"/>
-      <c r="I37" s="277"/>
-      <c r="J37" s="277"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="280" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="280"/>
+      <c r="F37" s="280"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="280"/>
+      <c r="I37" s="280"/>
+      <c r="J37" s="280"/>
       <c r="K37" s="98"/>
-      <c r="L37" s="329"/>
-      <c r="M37" s="329"/>
+      <c r="L37" s="304"/>
+      <c r="M37" s="304"/>
       <c r="N37" s="30"/>
     </row>
     <row r="38" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="300" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="300"/>
-      <c r="F38" s="300"/>
-      <c r="G38" s="300"/>
-      <c r="H38" s="300"/>
-      <c r="I38" s="300"/>
-      <c r="J38" s="300"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="260" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="260"/>
+      <c r="I38" s="260"/>
+      <c r="J38" s="260"/>
       <c r="K38" s="99"/>
-      <c r="L38" s="322"/>
-      <c r="M38" s="322"/>
+      <c r="L38" s="303"/>
+      <c r="M38" s="303"/>
       <c r="N38" s="30"/>
     </row>
     <row r="39" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
-      <c r="C39" s="210"/>
-      <c r="D39" s="277" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="277"/>
-      <c r="F39" s="277"/>
-      <c r="G39" s="277"/>
-      <c r="H39" s="277"/>
-      <c r="I39" s="277"/>
-      <c r="J39" s="277"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="280" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="280"/>
+      <c r="F39" s="280"/>
+      <c r="G39" s="280"/>
+      <c r="H39" s="280"/>
+      <c r="I39" s="280"/>
+      <c r="J39" s="280"/>
       <c r="K39" s="97"/>
-      <c r="L39" s="322"/>
-      <c r="M39" s="322"/>
+      <c r="L39" s="303"/>
+      <c r="M39" s="303"/>
       <c r="N39" s="30"/>
     </row>
     <row r="40" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
-      <c r="C40" s="210"/>
-      <c r="D40" s="277" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="277"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="277"/>
-      <c r="H40" s="277"/>
-      <c r="I40" s="277"/>
-      <c r="J40" s="277"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="280" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="280"/>
+      <c r="F40" s="280"/>
+      <c r="G40" s="280"/>
+      <c r="H40" s="280"/>
+      <c r="I40" s="280"/>
+      <c r="J40" s="280"/>
       <c r="K40" s="97"/>
-      <c r="L40" s="322"/>
-      <c r="M40" s="322"/>
+      <c r="L40" s="303"/>
+      <c r="M40" s="303"/>
       <c r="N40" s="30"/>
     </row>
     <row r="41" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
-      <c r="C41" s="210"/>
-      <c r="D41" s="300" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="300"/>
-      <c r="F41" s="300"/>
-      <c r="G41" s="300"/>
-      <c r="H41" s="300"/>
-      <c r="I41" s="300"/>
-      <c r="J41" s="300"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="260" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="260"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="260"/>
+      <c r="H41" s="260"/>
+      <c r="I41" s="260"/>
+      <c r="J41" s="260"/>
       <c r="K41" s="97"/>
-      <c r="L41" s="322"/>
-      <c r="M41" s="322"/>
+      <c r="L41" s="303"/>
+      <c r="M41" s="303"/>
       <c r="N41" s="30"/>
     </row>
     <row r="42" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
-      <c r="C42" s="323"/>
-      <c r="D42" s="323"/>
-      <c r="E42" s="323"/>
-      <c r="F42" s="323"/>
-      <c r="G42" s="323"/>
-      <c r="H42" s="323"/>
-      <c r="I42" s="323"/>
-      <c r="J42" s="323"/>
+      <c r="C42" s="308"/>
+      <c r="D42" s="308"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="308"/>
+      <c r="G42" s="308"/>
+      <c r="H42" s="308"/>
+      <c r="I42" s="308"/>
+      <c r="J42" s="308"/>
       <c r="K42" s="97"/>
-      <c r="L42" s="322"/>
-      <c r="M42" s="322"/>
+      <c r="L42" s="303"/>
+      <c r="M42" s="303"/>
       <c r="N42" s="30"/>
     </row>
     <row r="43" spans="2:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="100"/>
-      <c r="C43" s="330"/>
-      <c r="D43" s="330"/>
-      <c r="E43" s="330"/>
-      <c r="F43" s="330"/>
-      <c r="G43" s="330"/>
-      <c r="H43" s="330"/>
-      <c r="I43" s="330"/>
-      <c r="J43" s="330"/>
-      <c r="K43" s="330"/>
-      <c r="L43" s="330"/>
-      <c r="M43" s="330"/>
+      <c r="C43" s="298"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="298"/>
+      <c r="H43" s="298"/>
+      <c r="I43" s="298"/>
+      <c r="J43" s="298"/>
+      <c r="K43" s="298"/>
+      <c r="L43" s="298"/>
+      <c r="M43" s="298"/>
       <c r="N43" s="101"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
@@ -9142,59 +9062,19 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="62">
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="L39:M39"/>
+  <mergeCells count="64">
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H6:M6"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L7:M8"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="L37:M37"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="K24:M24"/>
@@ -9205,6 +9085,48 @@
     <mergeCell ref="C17:M17"/>
     <mergeCell ref="C18:M18"/>
     <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9214,15 +9136,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9244,62 +9166,62 @@
   <sheetData>
     <row r="1" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="81"/>
-      <c r="C1" s="352" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
+      <c r="C1" s="332" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
       <c r="F1" s="74"/>
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="351" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="351"/>
+      <c r="J1" s="331" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="331"/>
       <c r="L1" s="130"/>
     </row>
     <row r="2" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6"/>
-      <c r="C2" s="250" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
-      <c r="K2" s="311"/>
+      <c r="C2" s="239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
       <c r="L2" s="103"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="314"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="316"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="330"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
-      <c r="C4" s="357" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
+      <c r="C4" s="338" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
       <c r="L4" s="103"/>
     </row>
     <row r="5" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9317,68 +9239,68 @@
     </row>
     <row r="6" spans="2:12" s="11" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
-      <c r="C6" s="340" t="s">
+      <c r="C6" s="339" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="340"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="341"/>
-      <c r="E6" s="341"/>
-      <c r="F6" s="342"/>
-      <c r="G6" s="340" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="341"/>
-      <c r="I6" s="341"/>
-      <c r="J6" s="341"/>
-      <c r="K6" s="342"/>
+      <c r="H6" s="340"/>
+      <c r="I6" s="340"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="341"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" s="11" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
-      <c r="C7" s="343" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="353" t="s">
+      <c r="C7" s="342" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="334" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="320" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="333"/>
+      <c r="G7" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="312" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="348"/>
-      <c r="G7" s="355" t="s">
+      <c r="H7" s="320" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="333"/>
+      <c r="J7" s="320" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="312" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="348"/>
-      <c r="J7" s="312" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="348"/>
+      <c r="K7" s="333"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" s="11" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
-      <c r="C8" s="344"/>
-      <c r="D8" s="354"/>
+      <c r="C8" s="343"/>
+      <c r="D8" s="335"/>
       <c r="E8" s="202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="203" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="337"/>
+      <c r="H8" s="202" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="204" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="356"/>
-      <c r="H8" s="202" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="204" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="202" t="s">
-        <v>104</v>
-      </c>
       <c r="K8" s="204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="9"/>
     </row>
@@ -9426,7 +9348,7 @@
       <c r="C12" s="153"/>
       <c r="D12" s="145"/>
       <c r="E12" s="146"/>
-      <c r="F12" s="147"/>
+      <c r="F12" s="236"/>
       <c r="G12" s="145"/>
       <c r="H12" s="146"/>
       <c r="I12" s="145"/>
@@ -9462,20 +9384,20 @@
     </row>
     <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="346"/>
-      <c r="D15" s="347"/>
+      <c r="C15" s="344"/>
+      <c r="D15" s="345"/>
       <c r="E15" s="205" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="219">
+        <v>15</v>
+      </c>
+      <c r="F15" s="217">
         <f>SUM(F9:F14)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="254"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="256"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="245"/>
       <c r="L15" s="103"/>
     </row>
     <row r="16" spans="2:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9493,32 +9415,32 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
-      <c r="C17" s="325" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="325"/>
-      <c r="E17" s="325"/>
-      <c r="F17" s="325"/>
-      <c r="G17" s="325"/>
-      <c r="H17" s="325"/>
-      <c r="I17" s="325"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="325"/>
+      <c r="C17" s="310" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="310"/>
+      <c r="E17" s="310"/>
+      <c r="F17" s="310"/>
+      <c r="G17" s="310"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="310"/>
+      <c r="K17" s="310"/>
       <c r="L17" s="103"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
-      <c r="C18" s="325" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="325"/>
-      <c r="E18" s="325"/>
-      <c r="F18" s="325"/>
-      <c r="G18" s="325"/>
-      <c r="H18" s="325"/>
-      <c r="I18" s="325"/>
-      <c r="J18" s="325"/>
-      <c r="K18" s="325"/>
+      <c r="C18" s="310" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="310"/>
+      <c r="E18" s="310"/>
+      <c r="F18" s="310"/>
+      <c r="G18" s="310"/>
+      <c r="H18" s="310"/>
+      <c r="I18" s="310"/>
+      <c r="J18" s="310"/>
+      <c r="K18" s="310"/>
       <c r="L18" s="103"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -9640,74 +9562,74 @@
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="231" t="s">
-        <v>99</v>
+      <c r="C28" s="235"/>
+      <c r="D28" s="229" t="s">
+        <v>98</v>
       </c>
       <c r="E28" s="189"/>
       <c r="F28" s="190"/>
       <c r="G28" s="181"/>
-      <c r="H28" s="349" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="349"/>
-      <c r="J28" s="349"/>
-      <c r="K28" s="349"/>
+      <c r="H28" s="347" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="347"/>
+      <c r="J28" s="347"/>
+      <c r="K28" s="347"/>
       <c r="L28" s="103"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
-      <c r="C29" s="227" t="s">
-        <v>43</v>
+      <c r="C29" s="225" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="183"/>
       <c r="E29" s="189"/>
       <c r="F29" s="190"/>
-      <c r="G29" s="232" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="247"/>
+      <c r="G29" s="230" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="259"/>
+      <c r="I29" s="259"/>
+      <c r="J29" s="259"/>
+      <c r="K29" s="259"/>
       <c r="L29" s="103"/>
     </row>
     <row r="30" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
-      <c r="C30" s="228" t="s">
-        <v>4</v>
+      <c r="C30" s="226" t="s">
+        <v>3</v>
       </c>
       <c r="D30" s="184"/>
       <c r="E30" s="10"/>
       <c r="F30" s="112"/>
-      <c r="G30" s="228" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="248"/>
-      <c r="I30" s="248"/>
-      <c r="J30" s="248"/>
-      <c r="K30" s="248"/>
+      <c r="G30" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="237"/>
+      <c r="I30" s="237"/>
+      <c r="J30" s="237"/>
+      <c r="K30" s="237"/>
       <c r="L30" s="103"/>
     </row>
     <row r="31" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
-      <c r="C31" s="228" t="s">
-        <v>101</v>
+      <c r="C31" s="226" t="s">
+        <v>100</v>
       </c>
       <c r="D31" s="184"/>
       <c r="E31" s="10"/>
       <c r="F31" s="112"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="218"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
       <c r="L31" s="103"/>
     </row>
     <row r="32" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
-      <c r="C32" s="339" t="s">
-        <v>98</v>
+      <c r="C32" s="346" t="s">
+        <v>97</v>
       </c>
       <c r="D32" s="184"/>
       <c r="E32" s="10"/>
@@ -9721,7 +9643,7 @@
     </row>
     <row r="33" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
-      <c r="C33" s="339"/>
+      <c r="C33" s="346"/>
       <c r="D33" s="27"/>
       <c r="E33" s="60"/>
       <c r="F33" s="135"/>
@@ -9734,28 +9656,28 @@
     </row>
     <row r="34" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="131"/>
-      <c r="C34" s="339" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="339"/>
-      <c r="E34" s="339"/>
-      <c r="F34" s="339"/>
-      <c r="G34" s="339"/>
-      <c r="H34" s="350"/>
-      <c r="I34" s="350"/>
-      <c r="J34" s="350"/>
+      <c r="C34" s="346" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="346"/>
+      <c r="E34" s="346"/>
+      <c r="F34" s="346"/>
+      <c r="G34" s="346"/>
+      <c r="H34" s="348"/>
+      <c r="I34" s="348"/>
+      <c r="J34" s="348"/>
       <c r="K34" s="137"/>
       <c r="L34" s="103"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="131"/>
-      <c r="C35" s="339" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="339"/>
-      <c r="E35" s="339"/>
-      <c r="F35" s="339"/>
-      <c r="G35" s="339"/>
+      <c r="C35" s="346" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="346"/>
+      <c r="E35" s="346"/>
+      <c r="F35" s="346"/>
+      <c r="G35" s="346"/>
       <c r="H35" s="155"/>
       <c r="I35" s="156"/>
       <c r="J35" s="1"/>
@@ -9764,13 +9686,13 @@
     </row>
     <row r="36" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="131"/>
-      <c r="C36" s="339" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="339"/>
-      <c r="E36" s="339"/>
-      <c r="F36" s="339"/>
-      <c r="G36" s="339"/>
+      <c r="C36" s="346" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="346"/>
+      <c r="E36" s="346"/>
+      <c r="F36" s="346"/>
+      <c r="G36" s="346"/>
       <c r="H36" s="155"/>
       <c r="I36" s="156"/>
       <c r="J36" s="1"/>
@@ -9779,88 +9701,88 @@
     </row>
     <row r="37" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="131"/>
-      <c r="C37" s="339" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="339"/>
-      <c r="E37" s="339"/>
-      <c r="F37" s="339"/>
-      <c r="G37" s="339"/>
+      <c r="C37" s="346" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="346"/>
+      <c r="E37" s="346"/>
+      <c r="F37" s="346"/>
+      <c r="G37" s="346"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="345"/>
-      <c r="J37" s="345"/>
-      <c r="K37" s="345"/>
+      <c r="I37" s="351"/>
+      <c r="J37" s="351"/>
+      <c r="K37" s="351"/>
       <c r="L37" s="103"/>
     </row>
     <row r="38" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
-      <c r="C38" s="339" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="339"/>
-      <c r="E38" s="339"/>
-      <c r="F38" s="339"/>
-      <c r="G38" s="339"/>
+      <c r="C38" s="346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="346"/>
+      <c r="E38" s="346"/>
+      <c r="F38" s="346"/>
+      <c r="G38" s="346"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="334"/>
-      <c r="J38" s="334"/>
-      <c r="K38" s="334"/>
+      <c r="I38" s="302"/>
+      <c r="J38" s="302"/>
+      <c r="K38" s="302"/>
       <c r="L38" s="30"/>
     </row>
     <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
-      <c r="C39" s="339" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="339"/>
-      <c r="E39" s="339"/>
-      <c r="F39" s="339"/>
-      <c r="G39" s="339"/>
+      <c r="C39" s="346" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="346"/>
+      <c r="E39" s="346"/>
+      <c r="F39" s="346"/>
+      <c r="G39" s="346"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="334"/>
-      <c r="J39" s="334"/>
-      <c r="K39" s="334"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="302"/>
+      <c r="K39" s="302"/>
       <c r="L39" s="138"/>
     </row>
     <row r="40" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
-      <c r="C40" s="339" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="339"/>
-      <c r="E40" s="339"/>
-      <c r="F40" s="339"/>
-      <c r="G40" s="339"/>
+      <c r="C40" s="346" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="346"/>
+      <c r="E40" s="346"/>
+      <c r="F40" s="346"/>
+      <c r="G40" s="346"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="334"/>
-      <c r="J40" s="334"/>
-      <c r="K40" s="334"/>
+      <c r="I40" s="302"/>
+      <c r="J40" s="302"/>
+      <c r="K40" s="302"/>
       <c r="L40" s="138"/>
     </row>
     <row r="41" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
-      <c r="C41" s="339" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="339"/>
-      <c r="E41" s="339"/>
-      <c r="F41" s="339"/>
-      <c r="G41" s="339"/>
+      <c r="C41" s="346" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="346"/>
+      <c r="E41" s="346"/>
+      <c r="F41" s="346"/>
+      <c r="G41" s="346"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="334"/>
-      <c r="J41" s="334"/>
-      <c r="K41" s="334"/>
+      <c r="I41" s="302"/>
+      <c r="J41" s="302"/>
+      <c r="K41" s="302"/>
       <c r="L41" s="138"/>
     </row>
     <row r="42" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
-      <c r="C42" s="338" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="338"/>
-      <c r="E42" s="338"/>
-      <c r="F42" s="338"/>
-      <c r="G42" s="338"/>
+      <c r="C42" s="350" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="350"/>
+      <c r="E42" s="350"/>
+      <c r="F42" s="350"/>
+      <c r="G42" s="350"/>
       <c r="H42" s="186"/>
       <c r="I42" s="187"/>
       <c r="J42" s="186"/>
@@ -9869,58 +9791,58 @@
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
-      <c r="C43" s="339" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="339"/>
-      <c r="E43" s="339"/>
-      <c r="F43" s="339"/>
-      <c r="G43" s="339"/>
-      <c r="H43" s="339"/>
-      <c r="I43" s="339"/>
-      <c r="J43" s="339"/>
-      <c r="K43" s="339"/>
+      <c r="C43" s="346" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="346"/>
+      <c r="E43" s="346"/>
+      <c r="F43" s="346"/>
+      <c r="G43" s="346"/>
+      <c r="H43" s="346"/>
+      <c r="I43" s="346"/>
+      <c r="J43" s="346"/>
+      <c r="K43" s="346"/>
       <c r="L43" s="138"/>
     </row>
     <row r="44" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
-      <c r="C44" s="339"/>
-      <c r="D44" s="339"/>
-      <c r="E44" s="339"/>
-      <c r="F44" s="339"/>
-      <c r="G44" s="339"/>
-      <c r="H44" s="339"/>
-      <c r="I44" s="339"/>
-      <c r="J44" s="339"/>
-      <c r="K44" s="339"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="346"/>
+      <c r="F44" s="346"/>
+      <c r="G44" s="346"/>
+      <c r="H44" s="346"/>
+      <c r="I44" s="346"/>
+      <c r="J44" s="346"/>
+      <c r="K44" s="346"/>
       <c r="L44" s="138"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
-      <c r="C45" s="339"/>
-      <c r="D45" s="339"/>
-      <c r="E45" s="339"/>
-      <c r="F45" s="339"/>
-      <c r="G45" s="339"/>
-      <c r="H45" s="339"/>
-      <c r="I45" s="339"/>
-      <c r="J45" s="339"/>
-      <c r="K45" s="339"/>
+      <c r="C45" s="346"/>
+      <c r="D45" s="346"/>
+      <c r="E45" s="346"/>
+      <c r="F45" s="346"/>
+      <c r="G45" s="346"/>
+      <c r="H45" s="346"/>
+      <c r="I45" s="346"/>
+      <c r="J45" s="346"/>
+      <c r="K45" s="346"/>
       <c r="L45" s="138"/>
     </row>
     <row r="46" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
-      <c r="C46" s="337" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="337"/>
-      <c r="E46" s="337"/>
-      <c r="F46" s="337"/>
-      <c r="G46" s="337"/>
-      <c r="H46" s="337"/>
-      <c r="I46" s="337"/>
-      <c r="J46" s="337"/>
-      <c r="K46" s="337"/>
+      <c r="C46" s="349" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="349"/>
+      <c r="E46" s="349"/>
+      <c r="F46" s="349"/>
+      <c r="G46" s="349"/>
+      <c r="H46" s="349"/>
+      <c r="I46" s="349"/>
+      <c r="J46" s="349"/>
+      <c r="K46" s="349"/>
       <c r="L46" s="138"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9982,6 +9904,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C43:K45"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B3:L3"/>
@@ -9992,34 +9939,9 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="G6:K6"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C32:C33"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C17:K17"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="C43:K45"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.31496062992125984" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
